--- a/src/main/resources/Reportsheet/Book2.xlsx
+++ b/src/main/resources/Reportsheet/Book2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manju\IdeaProjects\filecomparision\src\main\resources\Reportsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC8E653-4DA6-4D60-A2E2-0E6156422A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CDC357-9A48-4E6D-9B66-7C1D0BFCD8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C02EB7D8-751D-4BD9-A0E1-FB2ACE060F66}"/>
+    <workbookView xWindow="3612" yWindow="1704" windowWidth="17280" windowHeight="8880" xr2:uid="{C02EB7D8-751D-4BD9-A0E1-FB2ACE060F66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Serial</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>Mask</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Tolerance</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
 </sst>
 </file>
@@ -424,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291B4014-175C-4D13-A571-09EF90B7C9E9}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,7 +444,7 @@
     <col min="5" max="5" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,8 +460,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -468,8 +480,11 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -485,8 +500,11 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -502,8 +520,11 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -518,6 +539,9 @@
       </c>
       <c r="E5" t="s">
         <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
